--- a/reports/report_optimized_mobility - sin derivacion.xlsx
+++ b/reports/report_optimized_mobility - sin derivacion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="810" windowWidth="19575" windowHeight="6825"/>
+    <workbookView xWindow="510" yWindow="810" windowWidth="19575" windowHeight="6825" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="locoms" sheetId="1" r:id="rId1"/>
@@ -11716,8 +11716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59554,17 +59554,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3771</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>26066908.310560621</v>
       </c>
     </row>
@@ -59572,7 +59575,7 @@
       <c r="A2" t="s">
         <v>3772</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>11627164679.662809</v>
       </c>
     </row>
@@ -59580,7 +59583,7 @@
       <c r="A3" t="s">
         <v>3773</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>446.05077599295657</v>
       </c>
     </row>
@@ -59588,7 +59591,7 @@
       <c r="A4" t="s">
         <v>3774</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>402798118</v>
       </c>
     </row>
